--- a/data/trans_dic/P44A$otras-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P44A$otras-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,48; 24,24</t>
+          <t>4,3; 24,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,55; 34,77</t>
+          <t>12,66; 35,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,63</t>
+          <t>0,0; 3,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,63; 46,12</t>
+          <t>21,21; 45,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,93; 30,51</t>
+          <t>8,73; 30,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,27</t>
+          <t>0,0; 1,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,02; 33,04</t>
+          <t>16,32; 34,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,84; 28,29</t>
+          <t>13,6; 29,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,71</t>
+          <t>0,19; 1,81</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,34; 41,68</t>
+          <t>14,25; 42,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,13; 27,62</t>
+          <t>10,13; 28,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,42</t>
+          <t>0,0; 1,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,36; 60,15</t>
+          <t>22,65; 58,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,93; 51,5</t>
+          <t>20,32; 52,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,95</t>
+          <t>0,0; 1,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,09; 42,58</t>
+          <t>20,42; 42,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,29; 32,36</t>
+          <t>15,96; 32,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,09; 1,18</t>
+          <t>0,08; 1,16</t>
         </is>
       </c>
     </row>
@@ -910,7 +911,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,11; 57,68</t>
+          <t>17,16; 59,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -920,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,6; 73,97</t>
+          <t>9,64; 73,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,35; 69,54</t>
+          <t>14,17; 70,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,57; 44,16</t>
+          <t>4,08; 38,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,0; 53,27</t>
+          <t>22,02; 52,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,48; 25,45</t>
+          <t>9,37; 24,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,77; 29,28</t>
+          <t>16,46; 29,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,09; 1,16</t>
+          <t>0,07; 1,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,9; 45,86</t>
+          <t>26,02; 45,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,43; 36,01</t>
+          <t>18,62; 35,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,17</t>
+          <t>0,16; 1,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,84; 32,4</t>
+          <t>19,67; 32,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,86; 29,6</t>
+          <t>19,3; 30,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,91</t>
+          <t>0,16; 0,84</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le han realizado otra prueba para detectar cáncer de cólon</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>11522</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1204</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>20656</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11295</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>965</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>25925</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>22817</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2168</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1939; 11088</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6548; 18153</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4269</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>13342; 28332</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5424; 18832</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3270</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>17621; 37074</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>15479; 33078</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>602; 5632</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>12623</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>13896</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2165</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>11804</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>12864</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1166</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>24427</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>26760</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3330</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>7091; 21298</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>7908; 22260</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7155</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6897; 17776</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>7404; 19132</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4020</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>16377; 33877</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>18282; 36949</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>619; 8524</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>10061</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4824</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6097</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4824</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>16159</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2112</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4966; 17083</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1484</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1204; 9158</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2287; 11391</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1028</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1103; 10547</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9927; 23753</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1261</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>17892</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>35479</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>3368</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>37283</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>30257</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2131</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>55175</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>65736</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>5499</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>10251; 27241</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>26132; 46946</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>576; 8074</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>27539; 47713</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>21362; 41128</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>747; 5927</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>42340; 69253</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>52767; 83010</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1982; 10556</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>